--- a/BalanceModel.xlsx
+++ b/BalanceModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/f.balume/Documents/Site internet personnel*/fbalumeacademic.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81FAA41-0825-9B4A-BEE7-90766603E888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99C1058-F2B9-BF4F-A304-8F2D4BE981C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="3000" windowWidth="26040" windowHeight="14440" activeTab="1" xr2:uid="{BCA8347E-DD74-A548-8517-320EE8D76CAB}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="4. Société Les transportsRéunis" sheetId="2" r:id="rId1"/>
     <sheet name="6. Entreprise Germain" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>N°</t>
   </si>
@@ -111,12 +111,6 @@
     <t>5.c La balance des comptes de « GERMAIN » (Modèle à compléter)</t>
   </si>
   <si>
-    <t>Modèle à compléter en vous basant sur le journal compléter en cours de TD</t>
-  </si>
-  <si>
-    <t>Vos totaux doivent correspondre aux totaux présent dans ce modèle</t>
-  </si>
-  <si>
     <t>La colonne "A nouveau" correspond aux informations qui ont été donné dans la balance présentée dans l'exercice (aucun autre montant n'est nécessaire dans cette colonne)</t>
   </si>
   <si>
@@ -181,6 +175,15 @@
   </si>
   <si>
     <t>Produits vente - prestation service</t>
+  </si>
+  <si>
+    <t>Modèle à compléter en vous basant sur le journal complété en  TD</t>
+  </si>
+  <si>
+    <t>Une fois complété , vos totaux doivent correspondre aux totaux présents dans ce modèle (en bleu)</t>
+  </si>
+  <si>
+    <t>Vos totaux doivent correspondre aux totaux présents dans ce modèle (en bleu)</t>
   </si>
 </sst>
 </file>
@@ -240,7 +243,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +256,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="39">
     <border>
@@ -742,30 +751,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -792,45 +787,6 @@
     <xf numFmtId="3" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -853,9 +809,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -876,6 +829,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,464 +1221,494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DABCAF-88BC-3F43-877A-216F4892D3DE}">
-  <dimension ref="B6:K33"/>
+  <dimension ref="B6:K35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="54"/>
+    </row>
+    <row r="8" spans="2:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="46"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="19"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="25">
+        <v>1013</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="39" t="s">
+      <c r="I10" s="36">
+        <v>350000</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="36">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="26">
+        <v>164</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="40"/>
-    </row>
-    <row r="8" spans="2:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="25"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="58"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="44">
-        <v>1013</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="47" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="25">
+        <v>207</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="56">
-        <v>350000</v>
-      </c>
-      <c r="J10" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="56">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="45">
-        <v>164</v>
-      </c>
-      <c r="C11" s="52" t="s">
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="25">
+        <v>2131</v>
+      </c>
+      <c r="C13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="50"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="44">
-        <v>207</v>
-      </c>
-      <c r="C12" s="52" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="34"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="27">
+        <v>2182</v>
+      </c>
+      <c r="C14" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="54"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="44">
-        <v>2131</v>
-      </c>
-      <c r="C13" s="52" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="33">
+        <v>130000</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="35">
+        <v>130000</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="25">
+        <v>2183</v>
+      </c>
+      <c r="C15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="54"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="46">
-        <v>2182</v>
-      </c>
-      <c r="C14" s="52" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="26">
+        <v>261</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53">
-        <v>130000</v>
-      </c>
-      <c r="I14" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="55">
-        <v>130000</v>
-      </c>
-      <c r="K14" s="60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="44">
-        <v>2183</v>
-      </c>
-      <c r="C15" s="52" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="26">
+        <v>275</v>
+      </c>
+      <c r="C17" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="54"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="45">
-        <v>261</v>
-      </c>
-      <c r="C16" s="52" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="25">
+        <v>401</v>
+      </c>
+      <c r="C18" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="54"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="45">
-        <v>275</v>
-      </c>
-      <c r="C17" s="52" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="25">
+        <v>411</v>
+      </c>
+      <c r="C19" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="54"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="44">
-        <v>401</v>
-      </c>
-      <c r="C18" s="52" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="26">
+        <v>508</v>
+      </c>
+      <c r="C20" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="54"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="44">
-        <v>411</v>
-      </c>
-      <c r="C19" s="52" t="s">
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="25">
+        <v>512</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="33">
+        <v>510000</v>
+      </c>
+      <c r="I21" s="34">
+        <v>190080</v>
+      </c>
+      <c r="J21" s="35">
+        <v>319920</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="25">
+        <v>530</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="26">
+        <v>6061</v>
+      </c>
+      <c r="C23" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="54"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="45">
-        <v>508</v>
-      </c>
-      <c r="C20" s="52" t="s">
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="26">
+        <v>6061</v>
+      </c>
+      <c r="C24" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="54"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="44">
-        <v>512</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53">
-        <v>510000</v>
-      </c>
-      <c r="I21" s="54">
-        <v>190080</v>
-      </c>
-      <c r="J21" s="55">
-        <v>319920</v>
-      </c>
-      <c r="K21" s="60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="44">
-        <v>530</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="54"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="45">
-        <v>6061</v>
-      </c>
-      <c r="C23" s="52" t="s">
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="34"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="26">
+        <v>6135</v>
+      </c>
+      <c r="C25" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="54"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="45">
-        <v>6061</v>
-      </c>
-      <c r="C24" s="52" t="s">
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="34"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="26">
+        <v>615</v>
+      </c>
+      <c r="C26" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="54"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="45">
-        <v>6135</v>
-      </c>
-      <c r="C25" s="52" t="s">
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="34"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="26">
+        <v>623</v>
+      </c>
+      <c r="C27" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="54"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="45">
-        <v>615</v>
-      </c>
-      <c r="C26" s="52" t="s">
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="34"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="26">
+        <v>641</v>
+      </c>
+      <c r="C28" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="54"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="45">
-        <v>623</v>
-      </c>
-      <c r="C27" s="52" t="s">
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="34"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="26">
+        <v>648</v>
+      </c>
+      <c r="C29" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="54"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="45">
-        <v>641</v>
-      </c>
-      <c r="C28" s="52" t="s">
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="34"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="26">
+        <v>706</v>
+      </c>
+      <c r="C30" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="54"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="45">
-        <v>648</v>
-      </c>
-      <c r="C29" s="52" t="s">
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="34"/>
+    </row>
+    <row r="31" spans="2:11" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="2:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="22"/>
+      <c r="C32" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="23">
+        <v>1121280</v>
+      </c>
+      <c r="I32" s="24">
+        <v>1121280</v>
+      </c>
+      <c r="J32" s="23">
+        <v>680000</v>
+      </c>
+      <c r="K32" s="24">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="59"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="54"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="45">
-        <v>706</v>
-      </c>
-      <c r="C30" s="52" t="s">
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="54"/>
-    </row>
-    <row r="31" spans="2:11" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
-    </row>
-    <row r="32" spans="2:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
-      <c r="C32" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="29">
-        <v>1121280</v>
-      </c>
-      <c r="I32" s="30">
-        <v>1121280</v>
-      </c>
-      <c r="J32" s="29">
-        <v>680000</v>
-      </c>
-      <c r="K32" s="30">
-        <v>680000</v>
-      </c>
-    </row>
-    <row r="33" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C24:G24"/>
@@ -1676,24 +1717,6 @@
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1704,7 +1727,7 @@
   <dimension ref="B3:O28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1727,52 +1750,52 @@
     </row>
     <row r="4" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="K5" s="6" t="s">
+      <c r="I5" s="58"/>
+      <c r="K5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="N5" s="6" t="s">
+      <c r="L5" s="58"/>
+      <c r="N5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="6"/>
+      <c r="O5" s="58"/>
     </row>
     <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="7" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1782,316 +1805,316 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="19">
+      <c r="B8" s="13">
         <v>101</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14">
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
         <v>200000</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14">
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8">
         <f>L8+I8-K8</f>
         <v>200000</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="20">
+      <c r="B9" s="14">
         <v>108</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="K9" s="15">
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="K9" s="9">
         <v>5000</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="N9" s="15">
+      <c r="L9" s="10"/>
+      <c r="N9" s="9">
         <f>K9+H9-I9-L9</f>
         <v>5000</v>
       </c>
-      <c r="O9" s="16"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="20">
+      <c r="B10" s="14">
         <v>164</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16">
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10">
         <v>300000</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="20">
+      <c r="B11" s="14">
         <v>215</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="15">
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="9">
         <v>40000</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
+      <c r="I11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="20">
+      <c r="B12" s="14">
         <v>2184</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="15">
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="9">
         <v>160000</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
+      <c r="I12" s="10"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="20">
+      <c r="B13" s="14">
         <v>276</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="20">
+      <c r="B14" s="14">
         <v>3731</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="15">
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="9">
         <v>380000</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
+      <c r="I14" s="10"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="20">
+      <c r="B15" s="14">
         <v>401</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16">
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10">
         <v>160000</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="9">
         <v>95000</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="10">
         <v>3500</v>
       </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16">
+      <c r="N15" s="9"/>
+      <c r="O15" s="10">
         <f>L15+I15-K15</f>
         <v>68500</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="20">
+      <c r="B16" s="14">
         <v>404</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="20">
+      <c r="B17" s="14">
         <v>411</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="15">
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="9">
         <v>35000</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="16"/>
+      <c r="I17" s="10"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="20">
+      <c r="B18" s="14">
         <v>512</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="15">
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="9">
         <v>43000</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="16"/>
+      <c r="I18" s="10"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="20">
+      <c r="B19" s="14">
         <v>53</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="15">
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="9">
         <v>2000</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="K19" s="15">
+      <c r="I19" s="10"/>
+      <c r="K19" s="9">
         <v>35800</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="10">
         <v>34800</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="9">
         <f>K19+H19-I19-L19</f>
         <v>3000</v>
       </c>
-      <c r="O19" s="16"/>
+      <c r="O19" s="10"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="20">
+      <c r="B20" s="14">
         <v>607</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="20">
+      <c r="B21" s="14">
         <v>661</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="16"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="21">
+      <c r="B22" s="15">
         <v>707</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18">
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12">
         <v>147000</v>
       </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="18">
+      <c r="N22" s="11"/>
+      <c r="O22" s="12">
         <f>L22+I22-K22</f>
         <v>147000</v>
       </c>
@@ -2102,52 +2125,64 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="12">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="60">
         <f>SUM(H8:H22)</f>
         <v>660000</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="61">
         <f>SUM(I8:I22)</f>
         <v>660000</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="60">
         <v>507000</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="62">
         <v>507000</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="60">
         <v>703000</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="62">
         <v>703000</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C15:G15"/>
@@ -2156,18 +2191,6 @@
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BalanceModel.xlsx
+++ b/BalanceModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/f.balume/Documents/Site internet personnel*/fbalumeacademic.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99C1058-F2B9-BF4F-A304-8F2D4BE981C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F1D97D-4675-B44F-9999-6DAAE2212701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="3000" windowWidth="26040" windowHeight="14440" activeTab="1" xr2:uid="{BCA8347E-DD74-A548-8517-320EE8D76CAB}"/>
   </bookViews>
@@ -105,15 +105,9 @@
     <t>Ventes</t>
   </si>
   <si>
-    <t xml:space="preserve">Total </t>
-  </si>
-  <si>
     <t>5.c La balance des comptes de « GERMAIN » (Modèle à compléter)</t>
   </si>
   <si>
-    <t>La colonne "A nouveau" correspond aux informations qui ont été donné dans la balance présentée dans l'exercice (aucun autre montant n'est nécessaire dans cette colonne)</t>
-  </si>
-  <si>
     <t>N° compte</t>
   </si>
   <si>
@@ -180,17 +174,23 @@
     <t>Modèle à compléter en vous basant sur le journal complété en  TD</t>
   </si>
   <si>
-    <t>Une fois complété , vos totaux doivent correspondre aux totaux présents dans ce modèle (en bleu)</t>
-  </si>
-  <si>
     <t>Vos totaux doivent correspondre aux totaux présents dans ce modèle (en bleu)</t>
+  </si>
+  <si>
+    <t>La colonne "A nouveau" correspond aux informations qui ont été données dans la balance présentée dans l'énoncé (pas besoin de remplir cette colonne)</t>
+  </si>
+  <si>
+    <t>Une fois complété, vos totaux doivent correspondre aux totaux présents dans ce modèle (en bleu)</t>
+  </si>
+  <si>
+    <t>Totaux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,6 +242,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -829,64 +835,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1223,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DABCAF-88BC-3F43-877A-216F4892D3DE}">
   <dimension ref="B6:K35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1232,7 +1238,7 @@
     <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>1</v>
@@ -1242,7 +1248,7 @@
       <c r="F7" s="48"/>
       <c r="G7" s="49"/>
       <c r="H7" s="53" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="54"/>
       <c r="J7" s="53" t="s">
@@ -1286,21 +1292,21 @@
       <c r="B10" s="25">
         <v>1013</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="36">
         <v>350000</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K10" s="36">
         <v>350000</v>
@@ -1310,13 +1316,13 @@
       <c r="B11" s="26">
         <v>164</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
+      <c r="C11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="30"/>
       <c r="I11" s="31"/>
       <c r="J11" s="32"/>
@@ -1326,13 +1332,13 @@
       <c r="B12" s="25">
         <v>207</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="C12" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
       <c r="J12" s="35"/>
@@ -1342,13 +1348,13 @@
       <c r="B13" s="25">
         <v>2131</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="C13" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
       <c r="J13" s="35"/>
@@ -1358,37 +1364,37 @@
       <c r="B14" s="27">
         <v>2182</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="C14" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="33">
         <v>130000</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J14" s="35">
         <v>130000</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="25">
         <v>2183</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="C15" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
       <c r="J15" s="35"/>
@@ -1398,13 +1404,13 @@
       <c r="B16" s="26">
         <v>261</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="C16" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
       <c r="J16" s="35"/>
@@ -1414,13 +1420,13 @@
       <c r="B17" s="26">
         <v>275</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
+      <c r="C17" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
       <c r="J17" s="35"/>
@@ -1430,13 +1436,13 @@
       <c r="B18" s="25">
         <v>401</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
+      <c r="C18" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
       <c r="J18" s="35"/>
@@ -1446,13 +1452,13 @@
       <c r="B19" s="25">
         <v>411</v>
       </c>
-      <c r="C19" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="C19" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
       <c r="J19" s="35"/>
@@ -1462,13 +1468,13 @@
       <c r="B20" s="26">
         <v>508</v>
       </c>
-      <c r="C20" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
+      <c r="C20" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
       <c r="J20" s="35"/>
@@ -1478,13 +1484,13 @@
       <c r="B21" s="25">
         <v>512</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="33">
         <v>510000</v>
       </c>
@@ -1495,20 +1501,20 @@
         <v>319920</v>
       </c>
       <c r="K21" s="40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="25">
         <v>530</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
       <c r="J22" s="35"/>
@@ -1518,13 +1524,13 @@
       <c r="B23" s="26">
         <v>6061</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
+      <c r="C23" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
       <c r="J23" s="35"/>
@@ -1534,13 +1540,13 @@
       <c r="B24" s="26">
         <v>6061</v>
       </c>
-      <c r="C24" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
+      <c r="C24" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
       <c r="J24" s="35"/>
@@ -1550,13 +1556,13 @@
       <c r="B25" s="26">
         <v>6135</v>
       </c>
-      <c r="C25" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="C25" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="H25" s="33"/>
       <c r="I25" s="34"/>
       <c r="J25" s="35"/>
@@ -1566,13 +1572,13 @@
       <c r="B26" s="26">
         <v>615</v>
       </c>
-      <c r="C26" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+      <c r="C26" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
       <c r="H26" s="33"/>
       <c r="I26" s="34"/>
       <c r="J26" s="35"/>
@@ -1582,13 +1588,13 @@
       <c r="B27" s="26">
         <v>623</v>
       </c>
-      <c r="C27" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
+      <c r="C27" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
       <c r="J27" s="35"/>
@@ -1598,13 +1604,13 @@
       <c r="B28" s="26">
         <v>641</v>
       </c>
-      <c r="C28" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
+      <c r="C28" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
       <c r="J28" s="35"/>
@@ -1614,13 +1620,13 @@
       <c r="B29" s="26">
         <v>648</v>
       </c>
-      <c r="C29" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
+      <c r="C29" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
       <c r="J29" s="35"/>
@@ -1630,13 +1636,13 @@
       <c r="B30" s="26">
         <v>706</v>
       </c>
-      <c r="C30" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
+      <c r="C30" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
       <c r="H30" s="33"/>
       <c r="I30" s="34"/>
       <c r="J30" s="35"/>
@@ -1656,13 +1662,13 @@
     </row>
     <row r="32" spans="2:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="22"/>
-      <c r="C32" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
+      <c r="C32" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57"/>
       <c r="H32" s="23">
         <v>1121280</v>
       </c>
@@ -1677,11 +1683,11 @@
       </c>
     </row>
     <row r="33" spans="2:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="59"/>
+      <c r="B33" s="18"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
@@ -1691,12 +1697,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:G8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
@@ -1709,14 +1717,12 @@
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:G8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="C10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1727,7 +1733,7 @@
   <dimension ref="B3:O28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1745,21 +1751,21 @@
   <sheetData>
     <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="58" t="s">
         <v>2</v>
       </c>
@@ -1774,12 +1780,12 @@
       <c r="O5" s="58"/>
     </row>
     <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1808,13 +1814,13 @@
       <c r="B8" s="13">
         <v>101</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="7"/>
       <c r="I8" s="8">
         <v>200000</v>
@@ -1831,13 +1837,13 @@
       <c r="B9" s="14">
         <v>108</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
       <c r="K9" s="9">
@@ -1854,13 +1860,13 @@
       <c r="B10" s="14">
         <v>164</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10">
         <v>300000</v>
@@ -1874,13 +1880,13 @@
       <c r="B11" s="14">
         <v>215</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="9">
         <v>40000</v>
       </c>
@@ -1894,13 +1900,13 @@
       <c r="B12" s="14">
         <v>2184</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="9">
         <v>160000</v>
       </c>
@@ -1914,13 +1920,13 @@
       <c r="B13" s="14">
         <v>276</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="K13" s="9"/>
@@ -1932,13 +1938,13 @@
       <c r="B14" s="14">
         <v>3731</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
       <c r="H14" s="9">
         <v>380000</v>
       </c>
@@ -1952,13 +1958,13 @@
       <c r="B15" s="14">
         <v>401</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10">
         <v>160000</v>
@@ -1979,13 +1985,13 @@
       <c r="B16" s="14">
         <v>404</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
       <c r="K16" s="9"/>
@@ -1997,13 +2003,13 @@
       <c r="B17" s="14">
         <v>411</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="9">
         <v>35000</v>
       </c>
@@ -2017,13 +2023,13 @@
       <c r="B18" s="14">
         <v>512</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="9">
         <v>43000</v>
       </c>
@@ -2037,13 +2043,13 @@
       <c r="B19" s="14">
         <v>53</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="9">
         <v>2000</v>
       </c>
@@ -2064,13 +2070,13 @@
       <c r="B20" s="14">
         <v>607</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
       <c r="K20" s="9"/>
@@ -2082,13 +2088,13 @@
       <c r="B21" s="14">
         <v>661</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
       <c r="K21" s="9"/>
@@ -2100,13 +2106,13 @@
       <c r="B22" s="15">
         <v>707</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
       <c r="K22" s="11"/>
@@ -2127,50 +2133,58 @@
     <row r="24" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="60">
+      <c r="H24" s="41">
         <f>SUM(H8:H22)</f>
         <v>660000</v>
       </c>
-      <c r="I24" s="61">
+      <c r="I24" s="42">
         <f>SUM(I8:I22)</f>
         <v>660000</v>
       </c>
-      <c r="K24" s="60">
+      <c r="K24" s="41">
         <v>507000</v>
       </c>
-      <c r="L24" s="62">
+      <c r="L24" s="43">
         <v>507000</v>
       </c>
-      <c r="N24" s="60">
+      <c r="N24" s="41">
         <v>703000</v>
       </c>
-      <c r="O24" s="62">
+      <c r="O24" s="43">
         <v>703000</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>24</v>
+      <c r="B28" s="62" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C14:G14"/>
@@ -2183,14 +2197,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BalanceModel.xlsx
+++ b/BalanceModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/f.balume/Documents/Site internet personnel*/fbalumeacademic.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F1D97D-4675-B44F-9999-6DAAE2212701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643899FC-B053-2E44-A51C-8118056377C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="3000" windowWidth="26040" windowHeight="14440" activeTab="1" xr2:uid="{BCA8347E-DD74-A548-8517-320EE8D76CAB}"/>
   </bookViews>
@@ -1730,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98F11AD-4D74-464C-BBE7-9AF733DFD9FB}">
-  <dimension ref="B3:O28"/>
+  <dimension ref="B3:S28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1749,13 +1749,13 @@
     <col min="13" max="13" width="0.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="60" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="O5" s="58"/>
     </row>
-    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
       <c r="D6" s="61"/>
@@ -1805,12 +1805,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I7" s="1"/>
       <c r="L7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="13">
         <v>101</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="14">
         <v>108</v>
       </c>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" s="14">
         <v>164</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="14">
         <v>215</v>
       </c>
@@ -1895,8 +1895,12 @@
       <c r="L11" s="10"/>
       <c r="N11" s="9"/>
       <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="S11">
+        <f>2000*1.2%</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="14">
         <v>2184</v>
       </c>
@@ -1916,7 +1920,7 @@
       <c r="N12" s="9"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" s="14">
         <v>276</v>
       </c>
@@ -1934,7 +1938,7 @@
       <c r="N13" s="9"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" s="14">
         <v>3731</v>
       </c>
@@ -1954,7 +1958,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" s="14">
         <v>401</v>
       </c>
@@ -1981,7 +1985,7 @@
         <v>68500</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="14">
         <v>404</v>
       </c>

--- a/BalanceModel.xlsx
+++ b/BalanceModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/f.balume/Documents/Site internet personnel*/fbalumeacademic.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643899FC-B053-2E44-A51C-8118056377C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F1D97D-4675-B44F-9999-6DAAE2212701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="3000" windowWidth="26040" windowHeight="14440" activeTab="1" xr2:uid="{BCA8347E-DD74-A548-8517-320EE8D76CAB}"/>
   </bookViews>
@@ -1730,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98F11AD-4D74-464C-BBE7-9AF733DFD9FB}">
-  <dimension ref="B3:S28"/>
+  <dimension ref="B3:O28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1749,13 +1749,13 @@
     <col min="13" max="13" width="0.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="60" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="O5" s="58"/>
     </row>
-    <row r="6" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
       <c r="D6" s="61"/>
@@ -1805,12 +1805,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I7" s="1"/>
       <c r="L7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="13">
         <v>101</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="14">
         <v>108</v>
       </c>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="14">
         <v>164</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="14">
         <v>215</v>
       </c>
@@ -1895,12 +1895,8 @@
       <c r="L11" s="10"/>
       <c r="N11" s="9"/>
       <c r="O11" s="10"/>
-      <c r="S11">
-        <f>2000*1.2%</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="14">
         <v>2184</v>
       </c>
@@ -1920,7 +1916,7 @@
       <c r="N12" s="9"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="14">
         <v>276</v>
       </c>
@@ -1938,7 +1934,7 @@
       <c r="N13" s="9"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="14">
         <v>3731</v>
       </c>
@@ -1958,7 +1954,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="14">
         <v>401</v>
       </c>
@@ -1985,7 +1981,7 @@
         <v>68500</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="14">
         <v>404</v>
       </c>
